--- a/src/main/resources/case/test_case_all.xlsx
+++ b/src/main/resources/case/test_case_all.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360Downloads\Software\eclipse\workspace\test\src\main\resources\case\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63903C63-9C6F-4163-8788-4714C4A9D163}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例的详细数据" sheetId="1" r:id="rId1"/>
     <sheet name="接口的基本信息" sheetId="2" r:id="rId2"/>
+    <sheet name="数据库数据验证" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>CaseId</t>
   </si>
@@ -39,6 +34,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>{ "mobile_phone": "13812346457","pwd": "12345678"}</t>
   </si>
   <si>
     <t>{ "mobile_phone": "13888887773","pwd": "12345678"}</t>
@@ -176,120 +174,167 @@
     <t>{"mobile_phone": "13888887773","pwd": "12345678"}</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "13888","pwd": "12345678"}</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "","pwd": "12345678"}</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "","pwd": ""}</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "lemon","pwd": ""}</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "13888887773","pwd": "12345"}</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "13888887773"}</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>{"member_id": 47,"amount": 0}</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>{"member_id": 47,"amount": 6300}</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>{"member_id": 47,"amount": 500001}</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>{"member_id": 47,"amount": -100}</t>
-  </si>
-  <si>
-    <t>ApiName</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Headers</t>
-  </si>
-  <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8766/futureloan/member/register</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>[{"name":"X-Lemonban-Media-Type","value":"lemonban.v1"},{"name":"org","value":"lemonban"}]</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8766/futureloan/member/login</t>
-  </si>
-  <si>
-    <t>充值</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8766/futureloan/member/recharge</t>
-  </si>
-  <si>
     <t>[{"actual":"$.code","expected":0},
 {"actual":"$.msg","expected":"OK"},
 {"actual":"$.data.id","expected":5},
 {"actual":"$.data.type","expected":1}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "13888","pwd": "12345678"}</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "","pwd": "12345678"}</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "","pwd": ""}</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "lemon","pwd": ""}</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "13888887773","pwd": "12345"}</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "13888887773"}</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>{"member_id": 47,"amount": 0}</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>{"member_id": 47,"amount": 6300}</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>{"member_id": 47,"amount": 500001}</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>{"member_id": 47,"amount": -100}</t>
+  </si>
+  <si>
+    <t>ApiName</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8766/futureloan/member/register</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>[{"name":"X-Lemonban-Media-Type","value":"lemonban.v1"},{"name":"org","value":"lemonban"}]</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8766/futureloan/member/login</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8766/futureloan/member/recharge</t>
+  </si>
+  <si>
+    <t>SqlId</t>
+  </si>
+  <si>
+    <t>Sql</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>CheckResult</t>
+  </si>
+  <si>
+    <t>bf</t>
+  </si>
+  <si>
+    <t>select count(1) from member where mobile_phone = '13812348752';</t>
+  </si>
+  <si>
+    <t>[{"count(1)":0}]</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>[{"count(1)":1}]</t>
+  </si>
+  <si>
+    <t>select leave_amount,type*1 as type,reg_name from member where mobile_phone = '13812348752';</t>
+  </si>
+  <si>
+    <t>[{"leave_amount":0.00,"type":1,"reg_name":"小柠檬"}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -300,21 +345,337 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -322,47 +683,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -649,380 +1298,500 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="51" style="3" customWidth="1"/>
-    <col min="5" max="5" width="69.1796875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11.5462962962963" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.90740740740741" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.8148148148148" style="6" customWidth="1"/>
+    <col min="4" max="4" width="51" style="6" customWidth="1"/>
+    <col min="5" max="5" width="69.1759259259259" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="6" customFormat="1" ht="28.8" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" ht="28.8" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" ht="28.8" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="57.6" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:3">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:3">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="65.36328125" customWidth="1"/>
+    <col min="1" max="1" width="8.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="10.0925925925926" customWidth="1"/>
+    <col min="3" max="3" width="21.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="9.81481481481481" customWidth="1"/>
+    <col min="5" max="5" width="65.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" tooltip="http://120.78.128.25:8766/futureloan/member/login" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" tooltip="http://120.78.128.25:8766/futureloan/member/recharge" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://120.78.128.25:8766/futureloan/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://120.78.128.25:8766/futureloan/member/login" tooltip="http://120.78.128.25:8766/futureloan/member/login"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://120.78.128.25:8766/futureloan/member/recharge" tooltip="http://120.78.128.25:8766/futureloan/member/recharge"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="6.11111111111111" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.44444444444444" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.88888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.7777777777778" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.1111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.5555555555556" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/case/test_case_all.xlsx
+++ b/src/main/resources/case/test_case_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>CaseId</t>
   </si>
@@ -30,23 +30,29 @@
     <t>ExpectedResultInfo</t>
   </si>
   <si>
+    <t>ExtractRespData</t>
+  </si>
+  <si>
     <t>ActualRespData</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>{ "mobile_phone": "13812346457","pwd": "12345678"}</t>
-  </si>
-  <si>
-    <t>{ "mobile_phone": "13888887773","pwd": "12345678"}</t>
+    <t>reg_case_1</t>
+  </si>
+  <si>
+    <t>api_reg</t>
+  </si>
+  <si>
+    <t>{ "mobile_phone": "${phone}","pwd": "12345678"}</t>
+  </si>
+  <si>
+    <t>reg_case_2</t>
   </si>
   <si>
     <t>[{"actual":"$.code","expected":2},
 {"actual":"$.msg","expected":"账号已存在"}]</t>
   </si>
   <si>
-    <t>2</t>
+    <t>reg_case_3</t>
   </si>
   <si>
     <t>{ "mobile_phone": "13888","pwd": "12345678"}</t>
@@ -75,16 +81,16 @@
     </r>
   </si>
   <si>
-    <t>3</t>
+    <t>reg_case_4</t>
   </si>
   <si>
     <t>{ "mobile_phone": "lemon","pwd": "12345678"}</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>{ "mobile_phone": "13888887773","pwd": ""}</t>
+    <t>reg_case_5</t>
+  </si>
+  <si>
+    <t>{ "mobile_phone": "${phone}","pwd": ""}</t>
   </si>
   <si>
     <r>
@@ -110,7 +116,7 @@
     </r>
   </si>
   <si>
-    <t>5</t>
+    <t>reg_case_6</t>
   </si>
   <si>
     <t>{ "mobile_phone": "","pwd": ""}</t>
@@ -139,10 +145,10 @@
     </r>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>{ "mobile_phone": "13888887773","pwd": "12345"}</t>
+    <t>reg_case_7</t>
+  </si>
+  <si>
+    <t>{ "mobile_phone": "${phone}","pwd": "12345"}</t>
   </si>
   <si>
     <r>
@@ -168,76 +174,84 @@
     </r>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "13888887773","pwd": "12345678"}</t>
+    <t>login_case_1</t>
+  </si>
+  <si>
+    <t>api_login</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "${phone}","pwd": "12345678"}</t>
   </si>
   <si>
     <t>[{"actual":"$.code","expected":0},
 {"actual":"$.msg","expected":"OK"},
-{"actual":"$.data.id","expected":5},
 {"actual":"$.data.type","expected":1}]</t>
   </si>
   <si>
-    <t>8</t>
+    <t>[{"getData":"$.data.id","toGloableParame":"member_id"}]</t>
+  </si>
+  <si>
+    <t>login_case_2</t>
   </si>
   <si>
     <t>{"mobile_phone": "13888","pwd": "12345678"}</t>
   </si>
   <si>
-    <t>9</t>
+    <t>login_case_3</t>
   </si>
   <si>
     <t>{"mobile_phone": "","pwd": "12345678"}</t>
   </si>
   <si>
-    <t>10</t>
+    <t>login_case_4</t>
   </si>
   <si>
     <t>{"mobile_phone": "","pwd": ""}</t>
   </si>
   <si>
-    <t>11</t>
+    <t>login_case_5</t>
   </si>
   <si>
     <t>{"mobile_phone": "lemon","pwd": ""}</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "13888887773","pwd": "12345"}</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "13888887773"}</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>{"member_id": 47,"amount": 0}</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>{"member_id": 47,"amount": 6300}</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>{"member_id": 47,"amount": 500001}</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>{"member_id": 47,"amount": -100}</t>
+    <t>login_case_6</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "${phone}","pwd": "12345"}</t>
+  </si>
+  <si>
+    <t>login_case_7</t>
+  </si>
+  <si>
+    <t>{"mobile_phone": "${phone}"}</t>
+  </si>
+  <si>
+    <t>recharge_case_1</t>
+  </si>
+  <si>
+    <t>api_recharge</t>
+  </si>
+  <si>
+    <t>{"member_id": ${member_id},"amount": 0}</t>
+  </si>
+  <si>
+    <t>recharge_case_2</t>
+  </si>
+  <si>
+    <t>{"member_id": "${member_id}","amount": 6300}</t>
+  </si>
+  <si>
+    <t>recharge_case_3</t>
+  </si>
+  <si>
+    <t>{"member_id": ${member_id},"amount": 500001}</t>
+  </si>
+  <si>
+    <t>recharge_case_4</t>
+  </si>
+  <si>
+    <t>{"member_id": ${member_id},"amount": -100}</t>
   </si>
   <si>
     <t>ApiName</t>
@@ -291,25 +305,40 @@
     <t>CheckResult</t>
   </si>
   <si>
+    <t>reg_sql_1</t>
+  </si>
+  <si>
     <t>bf</t>
   </si>
   <si>
-    <t>select count(1) from member where mobile_phone = '13812348752';</t>
+    <t>select count(1) from member where mobile_phone = '${phone}';</t>
   </si>
   <si>
     <t>[{"count(1)":0}]</t>
   </si>
   <si>
+    <t>reg_sql_2</t>
+  </si>
+  <si>
     <t>af</t>
   </si>
   <si>
     <t>[{"count(1)":1}]</t>
   </si>
   <si>
-    <t>select leave_amount,type*1 as type,reg_name from member where mobile_phone = '13812348752';</t>
+    <t>reg_sql_3</t>
+  </si>
+  <si>
+    <t>select leave_amount,type*1 as type,reg_name from member where mobile_phone = '${phone}';</t>
   </si>
   <si>
     <t>[{"leave_amount":0.00,"type":1,"reg_name":"小柠檬"}]</t>
+  </si>
+  <si>
+    <t>reg_sql_4</t>
+  </si>
+  <si>
+    <t>login_sql_1</t>
   </si>
 </sst>
 </file>
@@ -317,12 +346,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,10 +360,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -345,8 +383,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,70 +488,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,24 +512,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,24 +526,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,19 +536,229 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,170 +768,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -685,31 +779,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,35 +804,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,6 +827,65 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -789,10 +898,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,137 +910,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,19 +1050,49 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1304,257 +1443,310 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.5462962962963" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.90740740740741" style="6" customWidth="1"/>
-    <col min="3" max="3" width="37.8148148148148" style="6" customWidth="1"/>
-    <col min="4" max="4" width="51" style="6" customWidth="1"/>
-    <col min="5" max="5" width="69.1759259259259" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="17.5833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.2037037037037" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.0277777777778" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.3333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="69.1759259259259" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" ht="28.8" spans="1:6">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" ht="28.8" spans="1:6">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="28.8" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" ht="28.8" spans="1:6">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" ht="28.8" spans="1:6">
+      <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" ht="28.8" spans="1:6">
+      <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" ht="28.8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" ht="28.8" spans="1:6">
+      <c r="A8" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" ht="57.6" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" ht="43.2" spans="1:6">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" ht="28.8" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="C9" s="16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" ht="28.8" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="D9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="E9" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" ht="28.8" spans="1:6">
+      <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" ht="28.8" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" ht="28.8" spans="1:6">
+      <c r="A14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" ht="28.8" spans="1:6">
+      <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" ht="28.8" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" ht="28.8" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,85 +1760,85 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.4537037037037" customWidth="1"/>
+    <col min="1" max="1" width="12.9351851851852" customWidth="1"/>
     <col min="2" max="2" width="10.0925925925926" customWidth="1"/>
     <col min="3" max="3" width="21.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="9.81481481481481" customWidth="1"/>
-    <col min="5" max="5" width="65.3611111111111" customWidth="1"/>
+    <col min="5" max="5" width="93.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
+      <c r="B1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
+      <c r="E4" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1666,129 +1858,139 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.11111111111111" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.44444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.88888888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.55555555555556" style="2" customWidth="1"/>
     <col min="4" max="4" width="65.7777777777778" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.1111111111111" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.7962962962963" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5555555555556" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="D2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" ht="43.2" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/case/test_case_all.xlsx
+++ b/src/main/resources/case/test_case_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372"/>
+    <workbookView windowWidth="23256" windowHeight="9647" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例的详细数据" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>CaseId</t>
   </si>
@@ -188,7 +188,7 @@
 {"actual":"$.data.type","expected":1}]</t>
   </si>
   <si>
-    <t>[{"getData":"$.data.id","toGloableParame":"member_id"}]</t>
+    <t>[{"getData":"$.data.id","toGloableParame":"member_id"},{"getData":"$.data.token_info.token","toGloableParame":"token"}]</t>
   </si>
   <si>
     <t>login_case_2</t>
@@ -266,6 +266,9 @@
     <t>Headers</t>
   </si>
   <si>
+    <t>AuthCheck</t>
+  </si>
+  <si>
     <t>注册</t>
   </si>
   <si>
@@ -275,7 +278,7 @@
     <t>POST</t>
   </si>
   <si>
-    <t>[{"name":"X-Lemonban-Media-Type","value":"lemonban.v1"},{"name":"org","value":"lemonban"}]</t>
+    <t>[{"name":"X-Lemonban-Media-Type","value":"lemonban.v3"}]</t>
   </si>
   <si>
     <t>登录</t>
@@ -288,6 +291,12 @@
   </si>
   <si>
     <t>http://120.78.128.25:8766/futureloan/member/recharge</t>
+  </si>
+  <si>
+    <t>[{"name":"X-Lemonban-Media-Type","value":"lemonban.v3"},{"name":"Authorization","value":"Bearer ${token}"}]</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>SqlId</t>
@@ -398,6 +407,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -414,41 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -457,6 +454,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -473,36 +484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +500,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -584,187 +593,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,17 +802,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,15 +841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -843,30 +852,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,6 +875,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -898,10 +907,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,137 +919,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,26 +1068,29 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="10" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1445,8 +1457,8 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1461,236 +1473,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="28.8" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" ht="28.8" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" ht="28.8" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" ht="28.8" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" ht="28.8" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" ht="28.8" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" ht="28.8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" ht="43.2" spans="1:6">
-      <c r="A9" s="16" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" ht="57.6" spans="1:6">
+      <c r="A9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" ht="28.8" spans="1:6">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" ht="28.8" spans="1:6">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
@@ -1758,87 +1770,96 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.9351851851852" customWidth="1"/>
     <col min="2" max="2" width="10.0925925925926" customWidth="1"/>
     <col min="3" max="3" width="21.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="9.81481481481481" customWidth="1"/>
-    <col min="5" max="5" width="93.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="6.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="53.5555555555556" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="28.8" spans="1:6">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="E2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" ht="43.2" spans="1:6">
+      <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" ht="43.2" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>58</v>
+      <c r="E4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +1880,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1876,7 +1897,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1885,109 +1906,109 @@
         <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="43.2" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
